--- a/biology/Zoologie/Atelopus_pastuso/Atelopus_pastuso.xlsx
+++ b/biology/Zoologie/Atelopus_pastuso/Atelopus_pastuso.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atelopus pastuso est une espèce d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atelopus pastuso est une espèce d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre entre 2 800 et 3 900 m d'altitude dans la cordillère des Andes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre entre 2 800 et 3 900 m d'altitude dans la cordillère des Andes :
 dans le département de Nariño en Colombie ;
 dans la province d'Imbabura en Équateur.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 26,1 à 38,9 mm et les femelles de 29,6 à 50,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 26,1 à 38,9 mm et les femelles de 29,6 à 50,7 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Pastos[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur des Pastos.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Coloma, Duellman, Almendáriz, Ron, Terán-Valdez, Guaysamin, 2010 : Five new (extinct?) species of Atelopus (Anura: Bufonidae) from Andean Colombia, Ecuador, and Peru. Zootaxa, no 2574, p. 1–54.</t>
         </is>
